--- a/biology/Botanique/Staehelina_dubia/Staehelina_dubia.xlsx
+++ b/biology/Botanique/Staehelina_dubia/Staehelina_dubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Staehelina dubia, la Stéhéline douteuse, est une espèce de plante à fleurs de la famille des Astéracées. C'est un sous-arbrisseau méditerranéen. On la rencontre dans les garrigues et rocailles calcaires jusqu'à 1 400 mètres d'altitude[1].
-Elle est protégée en Aquitaine, Limousin et en Poitou-Charentes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Staehelina dubia, la Stéhéline douteuse, est une espèce de plante à fleurs de la famille des Astéracées. C'est un sous-arbrisseau méditerranéen. On la rencontre dans les garrigues et rocailles calcaires jusqu'à 1 400 mètres d'altitude.
+Elle est protégée en Aquitaine, Limousin et en Poitou-Charentes.
 Elle fleurit entre les mois de mai et juillet et peut atteindre 40 cm de haut.
 Les feuilles, blanchâtres en dessous, sont linéaires à bords ondulés ou dentés.
 Ses fleurs sont roses à violacées et regroupées en capitules allongés. Les bractées de ceux-ci sont entières.
